--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>65.58748237539901</v>
+        <v>66.67212822202085</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>87.29282781828107</v>
+        <v>88.73532565881372</v>
       </c>
       <c r="D2" s="2" t="n"/>
     </row>
@@ -485,10 +485,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>60.76342154241423</v>
+        <v>65.7031563275043</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>83.03844637079042</v>
+        <v>89.78901919281805</v>
       </c>
       <c r="D3" s="2" t="n"/>
     </row>
@@ -497,10 +497,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>81.29061255337632</v>
+        <v>84.16114586354875</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>88.24609446909537</v>
+        <v>91.3622396881984</v>
       </c>
       <c r="D4" s="2" t="n"/>
     </row>
@@ -509,10 +509,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>61.79593057809099</v>
+        <v>61.82183215548663</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>77.17632041894623</v>
+        <v>77.2086686402246</v>
       </c>
       <c r="D5" s="2" t="n"/>
     </row>
@@ -521,10 +521,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>68.6513552074579</v>
+        <v>68.92279204524594</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>74.78093439009962</v>
+        <v>75.07660663569979</v>
       </c>
       <c r="D6" s="2" t="n"/>
     </row>
@@ -533,10 +533,10 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>76.00233492738607</v>
+        <v>76.0863244874013</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>67.76841988388738</v>
+        <v>67.84331021159129</v>
       </c>
       <c r="D7" s="2" t="n"/>
     </row>
@@ -557,10 +557,10 @@
         <v>47</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>82.55435826670407</v>
+        <v>83.25125151776682</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>95.60292000463664</v>
+        <v>96.40996437070004</v>
       </c>
       <c r="D9" s="2" t="n"/>
     </row>
@@ -569,10 +569,10 @@
         <v>51</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>71.99667477237122</v>
+        <v>72.46514974761338</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>94.76822881745279</v>
+        <v>95.36887660432313</v>
       </c>
       <c r="D10" s="2" t="n"/>
     </row>
@@ -581,10 +581,10 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43.82916403874651</v>
+        <v>44.25408150944472</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>97.5445776357126</v>
+        <v>98.49025835124368</v>
       </c>
       <c r="D11" s="2" t="n"/>
     </row>
@@ -593,10 +593,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>46.82942598243223</v>
+        <v>47.52269439640553</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>74.50960334456221</v>
+        <v>75.61265240939254</v>
       </c>
       <c r="D12" s="2" t="n"/>
     </row>
@@ -605,10 +605,10 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>85.59268093466891</v>
+        <v>85.65877337097206</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>98.45514455051632</v>
+        <v>98.53116904582204</v>
       </c>
       <c r="D13" s="2" t="n"/>
     </row>
@@ -617,10 +617,10 @@
         <v>71</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>59.47583204357863</v>
+        <v>59.66460478466161</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>97.95731390263211</v>
+        <v>98.26822457036312</v>
       </c>
       <c r="D14" s="2" t="n"/>
     </row>
@@ -629,10 +629,10 @@
         <v>77</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>72.99346701997671</v>
+        <v>73.29535269482936</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>87.20247183033636</v>
+        <v>87.56312296984335</v>
       </c>
       <c r="D15" s="2" t="n"/>
     </row>
@@ -641,10 +641,10 @@
         <v>81</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>66.30155738788888</v>
+        <v>66.47913224622444</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>88.63430907486347</v>
+        <v>88.85482708469557</v>
       </c>
       <c r="D16" s="2" t="n"/>
     </row>
@@ -653,10 +653,10 @@
         <v>87</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>91.78900131992822</v>
+        <v>95.86858707375013</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>92.63637077979855</v>
+        <v>96.7536180870419</v>
       </c>
       <c r="D17" s="2" t="n"/>
     </row>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>98.1842752447689</v>
+        <v>98.18558552798871</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>99.57509992947857</v>
+        <v>99.57642877345305</v>
       </c>
       <c r="D18" s="2" t="n"/>
     </row>
@@ -681,7 +681,7 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area 
+Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area 
 from where they were reported.</t>
         </is>
       </c>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -681,8 +681,9 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area 
-from where they were reported.</t>
+Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
+Percent coverage calculations do not include landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+except for stocks from these groups which are included in the assessment.</t>
         </is>
       </c>
     </row>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -476,7 +476,7 @@
         <v>66.67212822202085</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>88.73532565881372</v>
+        <v>88.7077107191411</v>
       </c>
       <c r="D2" s="2" t="n"/>
     </row>
@@ -488,7 +488,7 @@
         <v>65.7031563275043</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>89.78901919281805</v>
+        <v>89.62602590419766</v>
       </c>
       <c r="D3" s="2" t="n"/>
     </row>
@@ -524,7 +524,7 @@
         <v>68.92279204524594</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>75.07660663569979</v>
+        <v>75.37525481742374</v>
       </c>
       <c r="D6" s="2" t="n"/>
     </row>
@@ -548,7 +548,7 @@
         <v>69.58747472592115</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>83.97875317138052</v>
+        <v>83.39239955741461</v>
       </c>
       <c r="D8" s="2" t="n"/>
     </row>
@@ -560,7 +560,7 @@
         <v>83.25125151776682</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>96.40996437070004</v>
+        <v>95.4277012277519</v>
       </c>
       <c r="D9" s="2" t="n"/>
     </row>
@@ -596,7 +596,7 @@
         <v>47.52269439640553</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>75.61265240939254</v>
+        <v>75.55919705222209</v>
       </c>
       <c r="D12" s="2" t="n"/>
     </row>
@@ -632,7 +632,7 @@
         <v>73.29535269482936</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>87.56312296984335</v>
+        <v>87.7533240051394</v>
       </c>
       <c r="D15" s="2" t="n"/>
     </row>
@@ -644,7 +644,7 @@
         <v>66.47913224622444</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>88.85482708469557</v>
+        <v>88.25445330474213</v>
       </c>
       <c r="D16" s="2" t="n"/>
     </row>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -476,7 +476,7 @@
         <v>66.67212822202085</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>88.7077107191411</v>
+        <v>88.70339407047719</v>
       </c>
       <c r="D2" s="2" t="n"/>
     </row>
@@ -560,7 +560,7 @@
         <v>83.25125151776682</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>95.4277012277519</v>
+        <v>95.38283744105355</v>
       </c>
       <c r="D9" s="2" t="n"/>
     </row>
@@ -572,7 +572,7 @@
         <v>72.46514974761338</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>95.36887660432313</v>
+        <v>95.35980609945506</v>
       </c>
       <c r="D10" s="2" t="n"/>
     </row>
@@ -584,7 +584,7 @@
         <v>44.25408150944472</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>98.49025835124368</v>
+        <v>98.4871602932466</v>
       </c>
       <c r="D11" s="2" t="n"/>
     </row>
@@ -620,7 +620,7 @@
         <v>59.66460478466161</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>98.26822457036312</v>
+        <v>98.26681293112539</v>
       </c>
       <c r="D14" s="2" t="n"/>
     </row>
@@ -632,7 +632,7 @@
         <v>73.29535269482936</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>87.7533240051394</v>
+        <v>87.65426515699606</v>
       </c>
       <c r="D15" s="2" t="n"/>
     </row>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>66.67212822202085</v>
+        <v>66.67211941872959</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>88.70339407047719</v>
+        <v>88.76230889935026</v>
       </c>
       <c r="D2" s="2" t="n"/>
     </row>
@@ -488,7 +488,7 @@
         <v>65.7031563275043</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>89.62602590419766</v>
+        <v>92.31243281328341</v>
       </c>
       <c r="D3" s="2" t="n"/>
     </row>
@@ -497,10 +497,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>84.16114586354875</v>
+        <v>84.16103557019441</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>91.3622396881984</v>
+        <v>91.36211995779584</v>
       </c>
       <c r="D4" s="2" t="n"/>
     </row>
@@ -560,7 +560,7 @@
         <v>83.25125151776682</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>95.38283744105355</v>
+        <v>95.33920971283109</v>
       </c>
       <c r="D9" s="2" t="n"/>
     </row>
@@ -572,7 +572,7 @@
         <v>72.46514974761338</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>95.35980609945506</v>
+        <v>95.35073559458699</v>
       </c>
       <c r="D10" s="2" t="n"/>
     </row>
@@ -584,7 +584,7 @@
         <v>44.25408150944472</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>98.4871602932466</v>
+        <v>98.48406223524952</v>
       </c>
       <c r="D11" s="2" t="n"/>
     </row>
@@ -596,7 +596,7 @@
         <v>47.52269439640553</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>75.55919705222209</v>
+        <v>75.5966977831971</v>
       </c>
       <c r="D12" s="2" t="n"/>
     </row>
@@ -620,7 +620,7 @@
         <v>59.66460478466161</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>98.26681293112539</v>
+        <v>98.26540129188768</v>
       </c>
       <c r="D14" s="2" t="n"/>
     </row>
@@ -632,7 +632,7 @@
         <v>73.29535269482936</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>87.65426515699606</v>
+        <v>87.55520630885273</v>
       </c>
       <c r="D15" s="2" t="n"/>
     </row>
@@ -644,7 +644,7 @@
         <v>66.47913224622444</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>88.25445330474213</v>
+        <v>88.25445330474211</v>
       </c>
       <c r="D16" s="2" t="n"/>
     </row>
@@ -681,8 +681,8 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
-Percent coverage calculations do not include landings from ISSCAAP codes 46, 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
+Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
+Percent coverage calculations do not include landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks from these groups which are included in the assessment.</t>
         </is>
       </c>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -476,7 +476,7 @@
         <v>66.67211941872959</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>88.76230889935026</v>
+        <v>86.54236240117649</v>
       </c>
       <c r="D2" s="2" t="n"/>
     </row>
@@ -488,7 +488,7 @@
         <v>65.7031563275043</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>92.31243281328341</v>
+        <v>93.462218161873</v>
       </c>
       <c r="D3" s="2" t="n"/>
     </row>
@@ -500,7 +500,7 @@
         <v>84.16103557019441</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>91.36211995779584</v>
+        <v>91.36174762834042</v>
       </c>
       <c r="D4" s="2" t="n"/>
     </row>
@@ -560,7 +560,7 @@
         <v>83.25125151776682</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>95.33920971283109</v>
+        <v>95.33920971283108</v>
       </c>
       <c r="D9" s="2" t="n"/>
     </row>
@@ -596,7 +596,7 @@
         <v>47.52269439640553</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>75.5966977831971</v>
+        <v>75.59669778319709</v>
       </c>
       <c r="D12" s="2" t="n"/>
     </row>
@@ -620,7 +620,7 @@
         <v>59.66460478466161</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>98.26540129188768</v>
+        <v>84.92487919070578</v>
       </c>
       <c r="D14" s="2" t="n"/>
     </row>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -681,7 +681,7 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', 'Deep Sea', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
+Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
 Percent coverage calculations do not include landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks from these groups which are included in the assessment.</t>
         </is>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -73,8 +73,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,227 +464,231 @@
           <t>Coverage (%) Update</t>
         </is>
       </c>
-      <c r="D1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>66.67211941872959</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>86.54236240117649</v>
-      </c>
-      <c r="D2" s="2" t="n"/>
+      <c r="A2" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>65.71529919139962</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>93.596662260502</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>65.7031563275043</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>93.462218161873</v>
-      </c>
-      <c r="D3" s="2" t="n"/>
+      <c r="A3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>84.15085075371101</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>91.30191835637562</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>84.16103557019441</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>91.36174762834042</v>
-      </c>
-      <c r="D4" s="2" t="n"/>
+      <c r="A4" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>60.17374999828196</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>76.22896530311566</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>61.82183215548663</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>77.2086686402246</v>
-      </c>
-      <c r="D5" s="2" t="n"/>
+      <c r="A5" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>67.13708455060036</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>73.70853227765006</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>68.92279204524594</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>75.37525481742374</v>
-      </c>
-      <c r="D6" s="2" t="n"/>
+      <c r="A6" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>75.51820985067206</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>67.06709270037017</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>76.0863244874013</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>67.84331021159129</v>
-      </c>
-      <c r="D7" s="2" t="n"/>
+      <c r="A7" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>69.59232215400029</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>83.64175756898143</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>69.58747472592115</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>83.39239955741461</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
+      <c r="A8" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>82.7895205460501</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>95.16461845900706</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>83.25125151776682</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>95.33920971283108</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
+      <c r="A9" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>67.0579398677236</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>94.42726519032928</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>72.46514974761338</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>95.35073559458699</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
+      <c r="A10" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>41.07210094153253</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>98.39426258134667</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>44.25408150944472</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>98.48406223524952</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
+      <c r="A11" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>47.77801794459297</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>76.13497089130404</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>61</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>47.52269439640553</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>75.59669778319709</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
+      <c r="A12" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>98.30745974294956</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>98.3103602578468</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>67</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>85.65877337097206</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>98.53116904582204</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
+      <c r="A13" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>51.24592796197229</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>82.01704992973568</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>71</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>59.66460478466161</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>84.92487919070578</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
+      <c r="A14" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>68.09093779373245</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>85.73938355045522</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>77</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>73.29535269482936</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>87.55520630885273</v>
-      </c>
-      <c r="D15" s="2" t="n"/>
+      <c r="A15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>66.79780401364637</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>89.77631277166559</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>81</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>66.47913224622444</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>88.25445330474211</v>
-      </c>
-      <c r="D16" s="2" t="n"/>
+      <c r="A16" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>95.87694141841631</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>96.6057775981145</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>87</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>95.86858707375013</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>96.7536180870419</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>48,58,88</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>98.18559568535957</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>99.57643907470766</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>98.18558552798871</v>
-      </c>
+          <t>Salmon</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>99.57642877345305</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>NOTE: Percent coverages are performed across FAO major fishing areas to be consistent with Fishstatj. 
-Thus, landings from areas such as 'Salmon', 'Tuna', and 'Sharks' are added back into the FAO major fishing area from where they were reported. 
-Percent coverage calculations do not include landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
-except for stocks from these groups which are included in the assessment.</t>
-        </is>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sharks</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n">
+        <v>63.87449876656093</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>96.0316093605344</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>96.03160936053438</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>67.05473957142843</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>86.54244178696908</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -473,7 +473,7 @@
         <v>65.71529919139962</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>93.596662260502</v>
+        <v>93.59801935506124</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         <v>75.51820985067206</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>67.06709270037017</v>
+        <v>66.73111244338112</v>
       </c>
     </row>
     <row r="7">
@@ -688,7 +688,7 @@
         <v>67.05473957142843</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>86.54244178696908</v>
+        <v>86.53782880214311</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Coverage (%) Update</t>
+          <t>Coverage (%) Updated</t>
         </is>
       </c>
     </row>
@@ -470,10 +470,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>65.71529919139962</v>
+        <v>65.70327955800671</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>93.59801935506124</v>
+        <v>93.4635692058455</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>84.15085075371101</v>
+        <v>84.1694666727812</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>91.30191835637562</v>
+        <v>91.36174762834041</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>60.17374999828196</v>
+        <v>77.09524009449655</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>76.22896530311566</v>
+        <v>77.2086686402246</v>
       </c>
     </row>
     <row r="5">
@@ -503,10 +503,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>67.13708455060036</v>
+        <v>63.98546874127818</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>73.70853227765006</v>
+        <v>75.37525481742374</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>75.51820985067206</v>
+        <v>74.05847598995371</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>66.73111244338112</v>
+        <v>67.51533733114508</v>
       </c>
     </row>
     <row r="7">
@@ -525,10 +525,10 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>69.59232215400029</v>
+        <v>68.32816593563267</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>83.64175756898143</v>
+        <v>83.39239955741461</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>82.7895205460501</v>
+        <v>84.24556845644508</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>95.16461845900706</v>
+        <v>95.33920971283108</v>
       </c>
     </row>
     <row r="9">
@@ -547,10 +547,10 @@
         <v>51</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>67.0579398677236</v>
+        <v>60.86670269659334</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>94.42726519032928</v>
+        <v>95.35980609945499</v>
       </c>
     </row>
     <row r="10">
@@ -558,10 +558,10 @@
         <v>57</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>41.07210094153253</v>
+        <v>70.91104411549486</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>98.39426258134667</v>
+        <v>98.48656067459761</v>
       </c>
     </row>
     <row r="11">
@@ -569,10 +569,10 @@
         <v>61</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>47.77801794459297</v>
+        <v>52.70640835580176</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>76.13497089130404</v>
+        <v>75.59669778319709</v>
       </c>
     </row>
     <row r="12">
@@ -580,10 +580,10 @@
         <v>67</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>98.30745974294956</v>
+        <v>86.44291049978115</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>98.3103602578468</v>
+        <v>98.53116904582205</v>
       </c>
     </row>
     <row r="13">
@@ -591,10 +591,10 @@
         <v>71</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>51.24592796197229</v>
+        <v>45.74823047534216</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>82.01704992973568</v>
+        <v>84.92620934149338</v>
       </c>
     </row>
     <row r="14">
@@ -602,10 +602,10 @@
         <v>77</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>68.09093779373245</v>
+        <v>73.92765112356949</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>85.73938355045522</v>
+        <v>87.65426515699606</v>
       </c>
     </row>
     <row r="15">
@@ -613,10 +613,10 @@
         <v>81</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>66.79780401364637</v>
+        <v>64.83036717447305</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>89.77631277166559</v>
+        <v>88.27120976885082</v>
       </c>
     </row>
     <row r="16">
@@ -624,10 +624,10 @@
         <v>87</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>95.87694141841631</v>
+        <v>91.54429195666719</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>96.6057775981145</v>
+        <v>96.7536180870419</v>
       </c>
     </row>
     <row r="17">
@@ -637,58 +637,23 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>98.18559568535957</v>
+        <v>98.18633037319434</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>99.57643907470766</v>
+        <v>99.57642877345305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salmon</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sharks</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n">
-        <v>63.87449876656093</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Tuna</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>96.0316093605344</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>96.03160936053438</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
-        <v>67.05473957142843</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>86.53782880214311</v>
+      <c r="B18" s="3" t="n">
+        <v>66.08393185558278</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>86.54127171777257</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -481,7 +481,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>84.1694666727812</v>
+        <v>84.16946667278121</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>91.36174762834041</v>
@@ -503,10 +503,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>63.98546874127818</v>
+        <v>63.98546874127819</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>75.37525481742374</v>
+        <v>75.37525481742372</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,7 @@
         <v>68.32816593563267</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>83.39239955741461</v>
+        <v>83.39239955741459</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>47</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>84.24556845644508</v>
+        <v>84.2455684564451</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>95.33920971283108</v>
+        <v>95.33920971283109</v>
       </c>
     </row>
     <row r="9">
@@ -547,10 +547,10 @@
         <v>51</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>60.86670269659334</v>
+        <v>60.86670269659339</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>95.35980609945499</v>
+        <v>95.35073559458699</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +561,7 @@
         <v>70.91104411549486</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>98.48656067459761</v>
+        <v>98.48406223524952</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         <v>52.70640835580176</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>75.59669778319709</v>
+        <v>75.5966977831971</v>
       </c>
     </row>
     <row r="12">
@@ -583,7 +583,7 @@
         <v>86.44291049978115</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>98.53116904582205</v>
+        <v>98.53116904582204</v>
       </c>
     </row>
     <row r="13">
@@ -594,7 +594,7 @@
         <v>45.74823047534216</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>84.92620934149338</v>
+        <v>84.92487919070578</v>
       </c>
     </row>
     <row r="14">
@@ -605,7 +605,7 @@
         <v>73.92765112356949</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>87.65426515699606</v>
+        <v>87.55520630885272</v>
       </c>
     </row>
     <row r="15">
@@ -613,10 +613,10 @@
         <v>81</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>64.83036717447305</v>
+        <v>64.83036717447308</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>88.27120976885082</v>
+        <v>88.27120976885085</v>
       </c>
     </row>
     <row r="16">
@@ -636,9 +636,7 @@
           <t>48,58,88</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
-        <v>98.18633037319434</v>
-      </c>
+      <c r="B17" s="3" t="n"/>
       <c r="C17" s="3" t="n">
         <v>99.57642877345305</v>
       </c>
@@ -650,10 +648,10 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>66.08393185558278</v>
+        <v>66.08393185558282</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>86.54127171777257</v>
+        <v>86.53782880214312</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -473,7 +473,7 @@
         <v>65.70327955800671</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>93.4635692058455</v>
+        <v>93.46356920584547</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>84.16946667278121</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>91.36174762834041</v>
+        <v>91.36174738107587</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>77.09524009449655</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>77.2086686402246</v>
+        <v>77.20830105050516</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +506,7 @@
         <v>63.98546874127819</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>75.37525481742372</v>
+        <v>75.37524068832182</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>74.05847598995371</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>67.51533733114508</v>
+        <v>67.50864890236018</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +528,7 @@
         <v>68.32816593563267</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>83.39239955741459</v>
+        <v>83.39239657807138</v>
       </c>
     </row>
     <row r="8">
@@ -539,7 +539,7 @@
         <v>84.2455684564451</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>95.33920971283109</v>
+        <v>95.33920423445558</v>
       </c>
     </row>
     <row r="9">
@@ -550,7 +550,7 @@
         <v>60.86670269659339</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>95.35073559458699</v>
+        <v>95.35062651248805</v>
       </c>
     </row>
     <row r="10">
@@ -594,7 +594,7 @@
         <v>45.74823047534216</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>84.92487919070578</v>
+        <v>84.92479770225566</v>
       </c>
     </row>
     <row r="14">
@@ -605,7 +605,7 @@
         <v>73.92765112356949</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>87.55520630885272</v>
+        <v>87.50659989954438</v>
       </c>
     </row>
     <row r="15">
@@ -616,7 +616,7 @@
         <v>64.83036717447308</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>88.27120976885085</v>
+        <v>88.27120976885084</v>
       </c>
     </row>
     <row r="16">
@@ -627,7 +627,7 @@
         <v>91.54429195666719</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>96.7536180870419</v>
+        <v>96.71375869441209</v>
       </c>
     </row>
     <row r="17">
@@ -651,7 +651,7 @@
         <v>66.08393185558282</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>86.53782880214312</v>
+        <v>86.53153678878475</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -451,7 +451,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>FAO Area</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>65.70327955800671</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>93.46356920584547</v>
+        <v>89.92981817503268</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>84.16946667278121</v>
+        <v>84.1694666727812</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>91.36174738107587</v>
+        <v>91.29696205583609</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>77.09524009449655</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>77.20830105050516</v>
+        <v>68.259214835074</v>
       </c>
     </row>
     <row r="5">
@@ -503,10 +503,10 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>63.98546874127819</v>
+        <v>63.98546874127818</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>75.37524068832182</v>
+        <v>70.87944968971328</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>74.05847598995371</v>
+        <v>74.05847598995372</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>67.50864890236018</v>
+        <v>73.2435432825289</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +528,7 @@
         <v>68.32816593563267</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>83.39239657807138</v>
+        <v>82.35904564625423</v>
       </c>
     </row>
     <row r="8">
@@ -539,106 +539,106 @@
         <v>84.2455684564451</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>95.33920423445558</v>
+        <v>93.65218916912835</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>60.86670269659339</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>95.35062651248805</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>70.91104411549486</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>98.48406223524952</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>52.70640835580176</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>75.5966977831971</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>86.44291049978115</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>98.53116904582204</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>45.74823047534216</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>84.92479770225566</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>73.92765112356949</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>87.50659989954438</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>64.83036717447308</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>88.27120976885084</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>91.54429195666719</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>96.71375869441209</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>48,58,88</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n">
+        <v>99.57642877345305</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>60.87691386774914</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>95.36662280477911</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>70.91104411549486</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>71.32550894708838</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>52.70640835580176</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>75.65015314036756</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>86.44291049978114</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>96.89383326838319</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>45.74823047534216</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>59.16072806498789</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>73.92765112356949</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>86.04549441863402</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>64.83036717447308</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>87.73009347475301</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>91.54429195666719</v>
+      </c>
       <c r="C17" s="3" t="n">
-        <v>99.57642877345305</v>
+        <v>96.90271216718973</v>
       </c>
     </row>
     <row r="18">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>66.08393185558282</v>
+        <v>66.08468879546409</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>86.53153678878475</v>
+        <v>79.67513141209714</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -470,10 +470,10 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>65.70327955800671</v>
+        <v>65.7032795580067</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>89.92981817503268</v>
+        <v>89.96570793714966</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>84.1694666727812</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>91.29696205583609</v>
+        <v>91.29809121646153</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>77.09524009449655</v>
+        <v>68.53177559343032</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>68.259214835074</v>
+        <v>71.9897105210237</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +506,7 @@
         <v>63.98546874127818</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>70.87944968971328</v>
+        <v>71.59483639150491</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>74.05847598995372</v>
+        <v>74.05847598995371</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>73.2435432825289</v>
+        <v>74.07324183489621</v>
       </c>
     </row>
     <row r="7">
@@ -528,7 +528,7 @@
         <v>68.32816593563267</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>82.35904564625423</v>
+        <v>85.33397320191013</v>
       </c>
     </row>
     <row r="8">
@@ -539,7 +539,7 @@
         <v>84.2455684564451</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>93.65218916912835</v>
+        <v>93.81306725680007</v>
       </c>
     </row>
     <row r="9">
@@ -558,10 +558,10 @@
         <v>51</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>60.87691386774914</v>
+        <v>60.20705883260835</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>95.36662280477911</v>
+        <v>79.80233311699642</v>
       </c>
     </row>
     <row r="11">
@@ -569,10 +569,10 @@
         <v>57</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>70.91104411549486</v>
+        <v>46.20051070453774</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>71.32550894708838</v>
+        <v>67.61436662856485</v>
       </c>
     </row>
     <row r="12">
@@ -580,10 +580,10 @@
         <v>61</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>52.70640835580176</v>
+        <v>52.70640835580177</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>75.65015314036756</v>
+        <v>63.40376104072362</v>
       </c>
     </row>
     <row r="13">
@@ -591,10 +591,10 @@
         <v>67</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>86.44291049978114</v>
+        <v>86.44291049978115</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>96.89383326838319</v>
+        <v>96.75109288056788</v>
       </c>
     </row>
     <row r="14">
@@ -605,7 +605,7 @@
         <v>45.74823047534216</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>59.16072806498789</v>
+        <v>51.29373280865202</v>
       </c>
     </row>
     <row r="15">
@@ -616,7 +616,7 @@
         <v>73.92765112356949</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>86.04549441863402</v>
+        <v>86.5677313537788</v>
       </c>
     </row>
     <row r="16">
@@ -627,7 +627,7 @@
         <v>64.83036717447308</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>87.73009347475301</v>
+        <v>81.37770795887133</v>
       </c>
     </row>
     <row r="17">
@@ -638,7 +638,7 @@
         <v>91.54429195666719</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>96.90271216718973</v>
+        <v>95.96893025860783</v>
       </c>
     </row>
     <row r="18">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>66.08468879546409</v>
+        <v>64.10296614842966</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>79.67513141209714</v>
+        <v>74.15752886633834</v>
       </c>
     </row>
   </sheetData>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -470,7 +470,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>65.7032795580067</v>
+        <v>65.85766683910722</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>89.96570793714966</v>
@@ -481,7 +481,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>84.1694666727812</v>
+        <v>84.17624178769552</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>91.29809121646153</v>
@@ -492,7 +492,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>68.53177559343032</v>
+        <v>69.89646324236281</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>71.9897105210237</v>
@@ -503,7 +503,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>63.98546874127818</v>
+        <v>64.09707944826511</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>71.59483639150491</v>
@@ -514,7 +514,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>74.05847598995371</v>
+        <v>74.2812144468125</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>74.07324183489621</v>
@@ -525,7 +525,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>68.32816593563267</v>
+        <v>68.43587623679196</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>85.33397320191013</v>
@@ -536,7 +536,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>84.2455684564451</v>
+        <v>84.57852965850681</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>93.81306725680007</v>
@@ -558,7 +558,7 @@
         <v>51</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>60.20705883260835</v>
+        <v>62.78143215579637</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>79.80233311699642</v>
@@ -569,7 +569,7 @@
         <v>57</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>46.20051070453774</v>
+        <v>46.81884208799465</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>67.61436662856485</v>
@@ -580,7 +580,7 @@
         <v>61</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>52.70640835580177</v>
+        <v>52.70640835580176</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>63.40376104072362</v>
@@ -591,7 +591,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>86.44291049978115</v>
+        <v>86.63148953918028</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>96.75109288056788</v>
@@ -602,7 +602,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>45.74823047534216</v>
+        <v>48.92024308574137</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>51.29373280865202</v>
@@ -613,7 +613,7 @@
         <v>77</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>73.92765112356949</v>
+        <v>74.18551345008437</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>86.5677313537788</v>
@@ -624,7 +624,7 @@
         <v>81</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>64.83036717447308</v>
+        <v>64.84928722094628</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>81.37770795887133</v>
@@ -635,7 +635,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>91.54429195666719</v>
+        <v>91.66015516612599</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>95.96893025860783</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>64.10296614842966</v>
+        <v>64.92780377523172</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>74.15752886633834</v>

--- a/output/aggregate_tables/percent_coverage_comparison.xlsx
+++ b/output/aggregate_tables/percent_coverage_comparison.xlsx
@@ -495,7 +495,7 @@
         <v>69.89646324236281</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>71.9897105210237</v>
+        <v>72.0648774192745</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>68.43587623679196</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>85.33397320191013</v>
+        <v>85.35999996725003</v>
       </c>
     </row>
     <row r="8">
@@ -651,7 +651,7 @@
         <v>64.92780377523172</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>74.15752886633834</v>
+        <v>74.15926940719275</v>
       </c>
     </row>
   </sheetData>
